--- a/photosynthesis_contributions/photosynthesis_contribution_comparison.xlsx
+++ b/photosynthesis_contributions/photosynthesis_contribution_comparison.xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guritsk1/Desktop/RNA_SEQ_2017/photosynthesis_contribution/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/guritsk1/Desktop/metatranscriptome_paper/photosynthesis_contributions/"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="640" yWindow="1180" windowWidth="33700" windowHeight="26020" tabRatio="500"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="15940" tabRatio="500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1042,11 +1042,11 @@
         </c:dLbls>
         <c:gapWidth val="219"/>
         <c:overlap val="-27"/>
-        <c:axId val="-2083009264"/>
-        <c:axId val="-2085219664"/>
+        <c:axId val="-2059451936"/>
+        <c:axId val="-2044888672"/>
       </c:barChart>
       <c:catAx>
-        <c:axId val="-2083009264"/>
+        <c:axId val="-2059451936"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -1089,7 +1089,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2085219664"/>
+        <c:crossAx val="-2044888672"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -1097,7 +1097,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2085219664"/>
+        <c:axId val="-2044888672"/>
         <c:scaling>
           <c:logBase val="10.0"/>
           <c:orientation val="minMax"/>
@@ -1118,6 +1118,7 @@
             <a:effectLst/>
           </c:spPr>
         </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="0"/>
         <c:majorTickMark val="none"/>
         <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
@@ -1148,7 +1149,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2083009264"/>
+        <c:crossAx val="-2059451936"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -1776,16 +1777,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>0</xdr:col>
-      <xdr:colOff>120650</xdr:colOff>
-      <xdr:row>25</xdr:row>
-      <xdr:rowOff>50800</xdr:rowOff>
+      <xdr:col>4</xdr:col>
+      <xdr:colOff>869950</xdr:colOff>
+      <xdr:row>54</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>4</xdr:col>
-      <xdr:colOff>1866900</xdr:colOff>
-      <xdr:row>60</xdr:row>
-      <xdr:rowOff>38100</xdr:rowOff>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>406400</xdr:colOff>
+      <xdr:row>89</xdr:row>
+      <xdr:rowOff>139700</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -2073,7 +2074,7 @@
   <dimension ref="A1:I67"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="E24" sqref="E24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
